--- a/From Excel to Python - Part 2/data/Monthly Sales Report.xlsx
+++ b/From Excel to Python - Part 2/data/Monthly Sales Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonasschroeder/OneDrive - MTP-Marketing zwischen Theorie und Praxis e. V/HOSD_Mentoring/HOSD repo/presentations/From Excel to Python - Part 2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEE08DD-EED2-814C-917F-A65C5C6E4FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B66AF2C-777F-CF40-B797-382604696BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{C5E7E521-643D-CE43-84A9-BCF01C463588}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{C5E7E521-643D-CE43-84A9-BCF01C463588}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales Report Sheet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'July Data'!$A$1:$E$23</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -231,7 +231,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -387,9 +387,6 @@
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -402,12 +399,15 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -599,7 +599,7 @@
                   <c:v>679</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>821</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -721,7 +721,7 @@
                   <c:v>5793</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5237</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -843,7 +843,7 @@
                   <c:v>3561</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5071</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -967,7 +967,7 @@
                   <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1359,7 +1359,7 @@
                   <c:v>2199</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3161</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1481,7 +1481,7 @@
                   <c:v>2899</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>481</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1603,7 +1603,7 @@
                   <c:v>3169</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5282</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1727,7 +1727,7 @@
                   <c:v>2022</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2395</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2118,7 +2118,7 @@
                   <c:v>2199</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3161</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2237,7 +2237,7 @@
                   <c:v>2899</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>481</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2356,7 +2356,7 @@
                   <c:v>3169</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5282</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2477,7 +2477,7 @@
                   <c:v>2022</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2395</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -4759,8 +4759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71E2EFA-6045-FF4B-8A7E-8F1EEBA98073}">
   <dimension ref="B2:O34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4776,34 +4776,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
     </row>
     <row r="3" spans="2:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
       <c r="M3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4812,533 +4812,533 @@
       </c>
     </row>
     <row r="4" spans="2:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
       <c r="M4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="26" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="26" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>202</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>290</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>189</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>478</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>678</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <v>679</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
+        <v>821</v>
+      </c>
+      <c r="J8" s="10">
         <v>0</v>
       </c>
-      <c r="J8" s="11">
+      <c r="K8" s="10">
         <v>0</v>
       </c>
-      <c r="K8" s="11">
+      <c r="L8" s="10">
         <v>0</v>
       </c>
-      <c r="L8" s="11">
+      <c r="M8" s="10">
         <v>0</v>
       </c>
-      <c r="M8" s="11">
+      <c r="N8" s="11">
         <v>0</v>
       </c>
-      <c r="N8" s="12">
-        <v>0</v>
-      </c>
-      <c r="O8" s="11">
+      <c r="O8" s="10">
         <f t="shared" ref="O8:O11" si="0">SUM(C8:N8)</f>
-        <v>2516</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>5609</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>5790</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>6519</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>7901</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>6972</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>5793</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
+        <v>5237</v>
+      </c>
+      <c r="J9" s="10">
         <v>0</v>
       </c>
-      <c r="J9" s="11">
+      <c r="K9" s="10">
         <v>0</v>
       </c>
-      <c r="K9" s="11">
+      <c r="L9" s="10">
         <v>0</v>
       </c>
-      <c r="L9" s="11">
+      <c r="M9" s="10">
         <v>0</v>
       </c>
-      <c r="M9" s="11">
+      <c r="N9" s="11">
         <v>0</v>
       </c>
-      <c r="N9" s="12">
-        <v>0</v>
-      </c>
-      <c r="O9" s="11">
+      <c r="O9" s="10">
         <f t="shared" si="0"/>
-        <v>38584</v>
+        <v>43821</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>1256</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>4627</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>2415</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>671</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>4678</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <v>3561</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
+        <v>5071</v>
+      </c>
+      <c r="J10" s="10">
         <v>0</v>
       </c>
-      <c r="J10" s="11">
+      <c r="K10" s="10">
         <v>0</v>
       </c>
-      <c r="K10" s="11">
+      <c r="L10" s="10">
         <v>0</v>
       </c>
-      <c r="L10" s="11">
+      <c r="M10" s="10">
         <v>0</v>
       </c>
-      <c r="M10" s="11">
+      <c r="N10" s="11">
         <v>0</v>
       </c>
-      <c r="N10" s="12">
-        <v>0</v>
-      </c>
-      <c r="O10" s="11">
+      <c r="O10" s="10">
         <f t="shared" si="0"/>
-        <v>17208</v>
+        <v>22279</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>527</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>521</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>467</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <v>421</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <v>652</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="12">
         <v>256</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="12">
+        <v>190</v>
+      </c>
+      <c r="J11" s="12">
         <v>0</v>
       </c>
-      <c r="J11" s="13">
+      <c r="K11" s="12">
         <v>0</v>
       </c>
-      <c r="K11" s="13">
+      <c r="L11" s="12">
         <v>0</v>
       </c>
-      <c r="L11" s="13">
+      <c r="M11" s="12">
         <v>0</v>
       </c>
-      <c r="M11" s="13">
+      <c r="N11" s="13">
         <v>0</v>
       </c>
-      <c r="N11" s="14">
-        <v>0</v>
-      </c>
-      <c r="O11" s="13">
+      <c r="O11" s="12">
         <f t="shared" si="0"/>
-        <v>2844</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <f>SUM(C8:C11)</f>
         <v>7594</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <f t="shared" ref="D12:N12" si="1">SUM(D8:D11)</f>
         <v>11228</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <f t="shared" si="1"/>
         <v>9590</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <f t="shared" si="1"/>
         <v>9471</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <f t="shared" si="1"/>
         <v>12980</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <f t="shared" si="1"/>
         <v>10289</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="10">
+        <f t="shared" ref="I12:J12" si="2">SUM(I8:I11)</f>
+        <v>11319</v>
+      </c>
+      <c r="J12" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J12" s="11">
+      <c r="L12" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K12" s="11">
+      <c r="M12" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L12" s="11">
+      <c r="N12" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M12" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="11">
+      <c r="O12" s="10">
         <f>SUM(C12:N12)</f>
-        <v>61152</v>
+        <v>72471</v>
       </c>
     </row>
     <row r="29" spans="2:15" ht="26" x14ac:dyDescent="0.3">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="2:15" ht="26" x14ac:dyDescent="0.3">
-      <c r="B30" s="5"/>
-      <c r="C30" s="9" t="s">
+      <c r="B30" s="4"/>
+      <c r="C30" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J30" s="9" t="s">
+      <c r="J30" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L30" s="9" t="s">
+      <c r="L30" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M30" s="9" t="s">
+      <c r="M30" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="10" t="s">
+      <c r="N30" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O30" s="9" t="s">
+      <c r="O30" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="10">
         <v>1568</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="10">
         <v>2012</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="10">
         <v>1679</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="10">
         <v>1298</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="10">
         <v>2138</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="10">
         <v>2199</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="10">
+        <v>3161</v>
+      </c>
+      <c r="J31" s="10">
         <v>0</v>
       </c>
-      <c r="J31" s="11">
+      <c r="K31" s="10">
         <v>0</v>
       </c>
-      <c r="K31" s="11">
+      <c r="L31" s="10">
         <v>0</v>
       </c>
-      <c r="L31" s="11">
+      <c r="M31" s="10">
         <v>0</v>
       </c>
-      <c r="M31" s="11">
+      <c r="N31" s="11">
         <v>0</v>
       </c>
-      <c r="N31" s="12">
-        <v>0</v>
-      </c>
-      <c r="O31" s="11">
-        <f t="shared" ref="O31:O34" si="2">SUM(C31:N31)</f>
-        <v>10894</v>
+      <c r="O31" s="10">
+        <f t="shared" ref="O31:O34" si="3">SUM(C31:N31)</f>
+        <v>14055</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="10">
         <v>1278</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="10">
         <v>2251</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="10">
         <v>2975</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="10">
         <v>2100</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="10">
         <v>3168</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="10">
         <v>2899</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="10">
+        <v>481</v>
+      </c>
+      <c r="J32" s="10">
         <v>0</v>
       </c>
-      <c r="J32" s="11">
+      <c r="K32" s="10">
         <v>0</v>
       </c>
-      <c r="K32" s="11">
+      <c r="L32" s="10">
         <v>0</v>
       </c>
-      <c r="L32" s="11">
+      <c r="M32" s="10">
         <v>0</v>
       </c>
-      <c r="M32" s="11">
+      <c r="N32" s="11">
         <v>0</v>
       </c>
-      <c r="N32" s="12">
-        <v>0</v>
-      </c>
-      <c r="O32" s="11">
-        <f t="shared" si="2"/>
-        <v>14671</v>
+      <c r="O32" s="10">
+        <f t="shared" si="3"/>
+        <v>15152</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="10">
         <v>4521</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="10">
         <v>3518</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="10">
         <v>3657</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="10">
         <v>1168</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="10">
         <v>2875</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H33" s="10">
         <v>3169</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="10">
+        <v>5282</v>
+      </c>
+      <c r="J33" s="10">
         <v>0</v>
       </c>
-      <c r="J33" s="11">
+      <c r="K33" s="10">
         <v>0</v>
       </c>
-      <c r="K33" s="11">
+      <c r="L33" s="10">
         <v>0</v>
       </c>
-      <c r="L33" s="11">
+      <c r="M33" s="10">
         <v>0</v>
       </c>
-      <c r="M33" s="11">
+      <c r="N33" s="11">
         <v>0</v>
       </c>
-      <c r="N33" s="12">
-        <v>0</v>
-      </c>
-      <c r="O33" s="11">
-        <f t="shared" si="2"/>
-        <v>18908</v>
+      <c r="O33" s="10">
+        <f t="shared" si="3"/>
+        <v>24190</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="10">
         <v>227</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="10">
         <v>3447</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="10">
         <v>1279</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="10">
         <v>4905</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="10">
         <v>4799</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="10">
         <v>2022</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="10">
+        <v>2395</v>
+      </c>
+      <c r="J34" s="10">
         <v>0</v>
       </c>
-      <c r="J34" s="11">
+      <c r="K34" s="10">
         <v>0</v>
       </c>
-      <c r="K34" s="11">
+      <c r="L34" s="10">
         <v>0</v>
       </c>
-      <c r="L34" s="11">
+      <c r="M34" s="10">
         <v>0</v>
       </c>
-      <c r="M34" s="11">
+      <c r="N34" s="11">
         <v>0</v>
       </c>
-      <c r="N34" s="12">
-        <v>0</v>
-      </c>
-      <c r="O34" s="11">
-        <f t="shared" si="2"/>
-        <v>16679</v>
+      <c r="O34" s="10">
+        <f t="shared" si="3"/>
+        <v>19074</v>
       </c>
     </row>
   </sheetData>
@@ -5357,7 +5357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3AC1F9-9DA1-F441-A9B6-7A19F6607EB5}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>

--- a/From Excel to Python - Part 2/data/Monthly Sales Report.xlsx
+++ b/From Excel to Python - Part 2/data/Monthly Sales Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonasschroeder/OneDrive - MTP-Marketing zwischen Theorie und Praxis e. V/HOSD_Mentoring/HOSD repo/presentations/From Excel to Python - Part 2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B66AF2C-777F-CF40-B797-382604696BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF272D3E-FCDA-8C49-AFC1-353B52B25AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{C5E7E521-643D-CE43-84A9-BCF01C463588}"/>
   </bookViews>
@@ -599,7 +599,7 @@
                   <c:v>679</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>821</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -721,7 +721,7 @@
                   <c:v>5793</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5237</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -843,7 +843,7 @@
                   <c:v>3561</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5071</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -967,7 +967,7 @@
                   <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>190</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1359,7 +1359,7 @@
                   <c:v>2199</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3161</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1481,7 +1481,7 @@
                   <c:v>2899</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>481</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1603,7 +1603,7 @@
                   <c:v>3169</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5282</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1727,7 +1727,7 @@
                   <c:v>2022</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2395</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2118,7 +2118,7 @@
                   <c:v>2199</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3161</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2237,7 +2237,7 @@
                   <c:v>2899</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>481</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2356,7 +2356,7 @@
                   <c:v>3169</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5282</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2477,7 +2477,7 @@
                   <c:v>2022</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2395</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -4760,7 +4760,7 @@
   <dimension ref="B2:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4900,7 +4900,7 @@
         <v>679</v>
       </c>
       <c r="I8" s="10">
-        <v>821</v>
+        <v>0</v>
       </c>
       <c r="J8" s="10">
         <v>0</v>
@@ -4919,7 +4919,7 @@
       </c>
       <c r="O8" s="10">
         <f t="shared" ref="O8:O11" si="0">SUM(C8:N8)</f>
-        <v>3337</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
@@ -4945,7 +4945,7 @@
         <v>5793</v>
       </c>
       <c r="I9" s="10">
-        <v>5237</v>
+        <v>0</v>
       </c>
       <c r="J9" s="10">
         <v>0</v>
@@ -4964,7 +4964,7 @@
       </c>
       <c r="O9" s="10">
         <f t="shared" si="0"/>
-        <v>43821</v>
+        <v>38584</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
@@ -4990,7 +4990,7 @@
         <v>3561</v>
       </c>
       <c r="I10" s="10">
-        <v>5071</v>
+        <v>0</v>
       </c>
       <c r="J10" s="10">
         <v>0</v>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="O10" s="10">
         <f t="shared" si="0"/>
-        <v>22279</v>
+        <v>17208</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5035,7 +5035,7 @@
         <v>256</v>
       </c>
       <c r="I11" s="12">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="J11" s="12">
         <v>0</v>
@@ -5054,7 +5054,7 @@
       </c>
       <c r="O11" s="12">
         <f t="shared" si="0"/>
-        <v>3034</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -5087,7 +5087,7 @@
       </c>
       <c r="I12" s="10">
         <f t="shared" ref="I12:J12" si="2">SUM(I8:I11)</f>
-        <v>11319</v>
+        <v>0</v>
       </c>
       <c r="J12" s="10">
         <f t="shared" si="2"/>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="O12" s="10">
         <f>SUM(C12:N12)</f>
-        <v>72471</v>
+        <v>61152</v>
       </c>
     </row>
     <row r="29" spans="2:15" ht="26" x14ac:dyDescent="0.3">
@@ -5184,7 +5184,7 @@
         <v>2199</v>
       </c>
       <c r="I31" s="10">
-        <v>3161</v>
+        <v>0</v>
       </c>
       <c r="J31" s="10">
         <v>0</v>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="O31" s="10">
         <f t="shared" ref="O31:O34" si="3">SUM(C31:N31)</f>
-        <v>14055</v>
+        <v>10894</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
@@ -5229,7 +5229,7 @@
         <v>2899</v>
       </c>
       <c r="I32" s="10">
-        <v>481</v>
+        <v>0</v>
       </c>
       <c r="J32" s="10">
         <v>0</v>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="O32" s="10">
         <f t="shared" si="3"/>
-        <v>15152</v>
+        <v>14671</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
@@ -5274,7 +5274,7 @@
         <v>3169</v>
       </c>
       <c r="I33" s="10">
-        <v>5282</v>
+        <v>0</v>
       </c>
       <c r="J33" s="10">
         <v>0</v>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="O33" s="10">
         <f t="shared" si="3"/>
-        <v>24190</v>
+        <v>18908</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
@@ -5319,7 +5319,7 @@
         <v>2022</v>
       </c>
       <c r="I34" s="10">
-        <v>2395</v>
+        <v>0</v>
       </c>
       <c r="J34" s="10">
         <v>0</v>
@@ -5338,7 +5338,7 @@
       </c>
       <c r="O34" s="10">
         <f t="shared" si="3"/>
-        <v>19074</v>
+        <v>16679</v>
       </c>
     </row>
   </sheetData>
